--- a/Quan-ly-thi-cu/CSDL.xlsx
+++ b/Quan-ly-thi-cu/CSDL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>MSSV</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Cường</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hồng</t>
+  </si>
+  <si>
+    <t>Nhung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Thị Thúy </t>
+  </si>
+  <si>
+    <t>Phương</t>
   </si>
 </sst>
 </file>
@@ -357,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -401,7 +413,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1812828</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1812816</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>